--- a/biology/Botanique/Fuchsia_pachyrrhiza/Fuchsia_pachyrrhiza.xlsx
+++ b/biology/Botanique/Fuchsia_pachyrrhiza/Fuchsia_pachyrrhiza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuchsia pachyrrhiza est une espèce de plantes dicotylédones de la famille des Onagraceae. Ce Fuchsia très rare, originaire des Andes péruviennes, est l'unique espèce de la section Pachyrrhiza, dont c'est par conséquent aussi l'espèce type. Elle a été décrite en 1988 par les botanistes Paul Edward Berry et Bruce Alan Stein. L'épithète spécifique pachyrrhiza signifie « grosses racines », en référence aux épais tubercules que forment les parties souterraines au pied de la tige[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fuchsia pachyrrhiza est une espèce de plantes dicotylédones de la famille des Onagraceae. Ce Fuchsia très rare, originaire des Andes péruviennes, est l'unique espèce de la section Pachyrrhiza, dont c'est par conséquent aussi l'espèce type. Elle a été décrite en 1988 par les botanistes Paul Edward Berry et Bruce Alan Stein. L'épithète spécifique pachyrrhiza signifie « grosses racines », en référence aux épais tubercules que forment les parties souterraines au pied de la tige.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Pérou[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Pérou.
 </t>
         </is>
       </c>
